--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_entertainment.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-0.057</v>
+        <v>-0.113</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -621,49 +621,49 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.6263736263736264</v>
+        <v>1.153061224489796</v>
       </c>
       <c r="X2">
-        <v>0.08331144378495792</v>
+        <v>0.06341144098668264</v>
       </c>
       <c r="Y2">
-        <v>0.5430621825886685</v>
+        <v>1.089649783503113</v>
       </c>
       <c r="Z2">
         <v>-0</v>
       </c>
       <c r="AA2">
-        <v>0.7125</v>
+        <v>1.298850574712644</v>
       </c>
       <c r="AB2">
-        <v>0.07945272352392634</v>
+        <v>0.06228762779337538</v>
       </c>
       <c r="AC2">
-        <v>0.6330472764760737</v>
+        <v>1.236562946919268</v>
       </c>
       <c r="AD2">
-        <v>0.062</v>
+        <v>0.176</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.062</v>
+        <v>0.176</v>
       </c>
       <c r="AG2">
-        <v>0.062</v>
+        <v>0.176</v>
       </c>
       <c r="AH2">
-        <v>0.06896551724137931</v>
+        <v>0.123422159887798</v>
       </c>
       <c r="AI2">
-        <v>-0.7380952380952381</v>
+        <v>-5.333333333333333</v>
       </c>
       <c r="AJ2">
-        <v>0.06896551724137931</v>
+        <v>0.123422159887798</v>
       </c>
       <c r="AK2">
-        <v>-0.7380952380952381</v>
+        <v>-5.333333333333333</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.057</v>
+        <v>-0.113</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -719,49 +719,49 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.6263736263736264</v>
+        <v>1.153061224489796</v>
       </c>
       <c r="X3">
-        <v>0.08331144378495792</v>
+        <v>0.06341144098668264</v>
       </c>
       <c r="Y3">
-        <v>0.5430621825886685</v>
+        <v>1.089649783503113</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0.7125</v>
+        <v>1.298850574712644</v>
       </c>
       <c r="AB3">
-        <v>0.07945272352392634</v>
+        <v>0.06228762779337538</v>
       </c>
       <c r="AC3">
-        <v>0.6330472764760737</v>
+        <v>1.236562946919268</v>
       </c>
       <c r="AD3">
-        <v>0.062</v>
+        <v>0.176</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.062</v>
+        <v>0.176</v>
       </c>
       <c r="AG3">
-        <v>0.062</v>
+        <v>0.176</v>
       </c>
       <c r="AH3">
-        <v>0.06896551724137931</v>
+        <v>0.123422159887798</v>
       </c>
       <c r="AI3">
-        <v>-0.7380952380952381</v>
+        <v>-5.333333333333333</v>
       </c>
       <c r="AJ3">
-        <v>0.06896551724137931</v>
+        <v>0.123422159887798</v>
       </c>
       <c r="AK3">
-        <v>-0.7380952380952381</v>
+        <v>-5.333333333333333</v>
       </c>
       <c r="AL3">
         <v>0</v>
